--- a/MEDIA/0012_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/0012_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28653</v>
+        <v>630</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>12935</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>45.1</v>
+        <v>17.5</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>7768</v>
+        <v>520</v>
       </c>
       <c r="J3" t="n">
-        <v>27.1</v>
+        <v>82.5</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2845</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,37 +553,37 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>15</v>
       </c>
-      <c r="U3" t="n">
-        <v>2975</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>205</v>
-      </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -599,65 +599,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23463</v>
+        <v>1080</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>7188</v>
+        <v>545</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6</v>
+        <v>50.5</v>
       </c>
       <c r="H4" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>5155</v>
+        <v>535</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>49.5</v>
       </c>
       <c r="K4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3330</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3420</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2655</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>142</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21794</v>
+        <v>1280</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>6900</v>
+        <v>450</v>
       </c>
       <c r="G5" t="n">
-        <v>31.7</v>
+        <v>35.2</v>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>7189</v>
+        <v>510</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>39.8</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2845</v>
+        <v>320</v>
       </c>
       <c r="M5" t="n">
-        <v>13.1</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2865</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>132</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29132</v>
+        <v>1070</v>
       </c>
       <c r="E6" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>13402</v>
+        <v>525</v>
       </c>
       <c r="G6" t="n">
-        <v>46</v>
+        <v>49.1</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>8070</v>
+        <v>545</v>
       </c>
       <c r="J6" t="n">
-        <v>27.7</v>
+        <v>50.9</v>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3960</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -866,65 +866,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22285</v>
+        <v>1109</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>6125</v>
+        <v>524</v>
       </c>
       <c r="G7" t="n">
-        <v>27.5</v>
+        <v>47.2</v>
       </c>
       <c r="H7" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>6425</v>
+        <v>585</v>
       </c>
       <c r="J7" t="n">
-        <v>28.8</v>
+        <v>52.8</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4510</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17211</v>
+        <v>1344</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>4195</v>
+        <v>129</v>
       </c>
       <c r="G8" t="n">
-        <v>24.4</v>
+        <v>9.6</v>
       </c>
       <c r="H8" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>8326</v>
+        <v>665</v>
       </c>
       <c r="J8" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
       <c r="K8" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1855</v>
+        <v>550</v>
       </c>
       <c r="M8" t="n">
-        <v>10.8</v>
+        <v>40.9</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17888</v>
+        <v>1100</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>6445</v>
+        <v>285</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>25.9</v>
       </c>
       <c r="H9" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>5213</v>
+        <v>605</v>
       </c>
       <c r="J9" t="n">
-        <v>29.1</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3725</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1440</v>
+        <v>210</v>
       </c>
       <c r="S9" t="n">
-        <v>8.1</v>
+        <v>19.1</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19041</v>
+        <v>820</v>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>5566</v>
+        <v>725</v>
       </c>
       <c r="G10" t="n">
-        <v>29.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>7060</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
-        <v>37.1</v>
+        <v>11.6</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3045</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24788</v>
+        <v>905</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>9750</v>
+        <v>560</v>
       </c>
       <c r="G11" t="n">
-        <v>39.3</v>
+        <v>61.9</v>
       </c>
       <c r="H11" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>7128</v>
+        <v>260</v>
       </c>
       <c r="J11" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="K11" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3120</v>
+        <v>85</v>
       </c>
       <c r="M11" t="n">
-        <v>12.6</v>
+        <v>9.4</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2640</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26281</v>
+        <v>615</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>10350</v>
+        <v>85</v>
       </c>
       <c r="G12" t="n">
-        <v>39.4</v>
+        <v>13.8</v>
       </c>
       <c r="H12" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>8251</v>
+        <v>325</v>
       </c>
       <c r="J12" t="n">
-        <v>31.4</v>
+        <v>52.8</v>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>205</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>10</v>
       </c>
-      <c r="R12" t="n">
-        <v>2545</v>
-      </c>
-      <c r="S12" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="T12" t="n">
-        <v>13</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2365</v>
-      </c>
-      <c r="V12" t="n">
-        <v>9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>179</v>
-      </c>
       <c r="AA12" t="n">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1400,80 +1400,80 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34757</v>
+        <v>1530</v>
       </c>
       <c r="E13" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>12617</v>
+        <v>695</v>
       </c>
       <c r="G13" t="n">
-        <v>36.3</v>
+        <v>45.4</v>
       </c>
       <c r="H13" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>8575</v>
+        <v>835</v>
       </c>
       <c r="J13" t="n">
-        <v>24.7</v>
+        <v>54.6</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3955</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4025</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>11</v>
       </c>
-      <c r="R13" t="n">
-        <v>2390</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="T13" t="n">
-        <v>21</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3195</v>
-      </c>
-      <c r="V13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>218</v>
-      </c>
       <c r="AA13" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -1489,65 +1489,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20760</v>
+        <v>1041</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>6755</v>
+        <v>496</v>
       </c>
       <c r="G14" t="n">
-        <v>32.5</v>
+        <v>47.6</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>5900</v>
+        <v>545</v>
       </c>
       <c r="J14" t="n">
-        <v>28.4</v>
+        <v>52.4</v>
       </c>
       <c r="K14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18196</v>
+        <v>1718</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>5390</v>
+        <v>1178</v>
       </c>
       <c r="G15" t="n">
-        <v>29.6</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>7216</v>
+        <v>530</v>
       </c>
       <c r="J15" t="n">
-        <v>39.7</v>
+        <v>30.8</v>
       </c>
       <c r="K15" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2595</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>14.3</v>
+        <v>0.6</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19162</v>
+        <v>605</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>5847</v>
+        <v>355</v>
       </c>
       <c r="G16" t="n">
-        <v>30.5</v>
+        <v>58.7</v>
       </c>
       <c r="H16" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>6785</v>
+        <v>240</v>
       </c>
       <c r="J16" t="n">
-        <v>35.4</v>
+        <v>39.7</v>
       </c>
       <c r="K16" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>4425</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>23.1</v>
+        <v>1.7</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -1756,38 +1756,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17440</v>
+        <v>3306</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>5255</v>
+        <v>3251</v>
       </c>
       <c r="G17" t="n">
-        <v>30.1</v>
+        <v>98.3</v>
       </c>
       <c r="H17" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6565</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1715</v>
+        <v>55</v>
       </c>
       <c r="M17" t="n">
-        <v>9.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2565</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18164</v>
+        <v>1025</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>4380</v>
+        <v>225</v>
       </c>
       <c r="G18" t="n">
-        <v>24.1</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I18" t="n">
-        <v>7314</v>
+        <v>800</v>
       </c>
       <c r="J18" t="n">
-        <v>40.3</v>
+        <v>78</v>
       </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1934,38 +1934,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25651</v>
+        <v>1675</v>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>7740</v>
+        <v>575</v>
       </c>
       <c r="G19" t="n">
-        <v>30.2</v>
+        <v>34.3</v>
       </c>
       <c r="H19" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>8026</v>
+        <v>890</v>
       </c>
       <c r="J19" t="n">
-        <v>31.3</v>
+        <v>53.1</v>
       </c>
       <c r="K19" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3720</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3370</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -2023,65 +2023,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36274</v>
+        <v>1435</v>
       </c>
       <c r="E20" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>12862</v>
+        <v>645</v>
       </c>
       <c r="G20" t="n">
-        <v>35.5</v>
+        <v>44.9</v>
       </c>
       <c r="H20" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>8967</v>
+        <v>790</v>
       </c>
       <c r="J20" t="n">
-        <v>24.7</v>
+        <v>55.1</v>
       </c>
       <c r="K20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4985</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2070</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3880</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -2112,38 +2112,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21676</v>
+        <v>965</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>5093</v>
+        <v>525</v>
       </c>
       <c r="G21" t="n">
-        <v>23.5</v>
+        <v>54.4</v>
       </c>
       <c r="H21" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>6858</v>
+        <v>440</v>
       </c>
       <c r="J21" t="n">
-        <v>31.6</v>
+        <v>45.6</v>
       </c>
       <c r="K21" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3845</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,84 +2155,84 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>16</v>
       </c>
-      <c r="R21" t="n">
-        <v>3875</v>
-      </c>
-      <c r="S21" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="T21" t="n">
-        <v>13</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2005</v>
-      </c>
-      <c r="V21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>188</v>
-      </c>
       <c r="AA21" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19818</v>
+        <v>1265</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>5395</v>
+        <v>615</v>
       </c>
       <c r="G22" t="n">
-        <v>27.2</v>
+        <v>48.6</v>
       </c>
       <c r="H22" t="n">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>7448</v>
+        <v>610</v>
       </c>
       <c r="J22" t="n">
-        <v>37.6</v>
+        <v>48.2</v>
       </c>
       <c r="K22" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3845</v>
+        <v>40</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>3.2</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1415</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,57 +2271,57 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17438</v>
+        <v>1225</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>3967</v>
+        <v>1030</v>
       </c>
       <c r="G23" t="n">
-        <v>22.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>6016</v>
+        <v>185</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5</v>
+        <v>15.1</v>
       </c>
       <c r="K23" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>3040</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>17.4</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2780</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,57 +2360,57 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20589</v>
+        <v>1200</v>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>5847</v>
+        <v>1095</v>
       </c>
       <c r="G24" t="n">
-        <v>28.4</v>
+        <v>91.2</v>
       </c>
       <c r="H24" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>6817</v>
+        <v>105</v>
       </c>
       <c r="J24" t="n">
-        <v>33.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2360</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,57 +2449,57 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-10-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17503</v>
+        <v>624</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>4628</v>
+        <v>52</v>
       </c>
       <c r="G25" t="n">
-        <v>26.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>5650</v>
+        <v>572</v>
       </c>
       <c r="J25" t="n">
-        <v>32.3</v>
+        <v>91.7</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,146 +2538,146 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32841</v>
+        <v>1205</v>
       </c>
       <c r="E26" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>12226</v>
+        <v>575</v>
       </c>
       <c r="G26" t="n">
-        <v>37.2</v>
+        <v>47.7</v>
       </c>
       <c r="H26" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>9285</v>
+        <v>510</v>
       </c>
       <c r="J26" t="n">
-        <v>28.3</v>
+        <v>42.3</v>
       </c>
       <c r="K26" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2725</v>
+        <v>120</v>
       </c>
       <c r="M26" t="n">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
         <v>19</v>
       </c>
-      <c r="R26" t="n">
-        <v>4025</v>
-      </c>
-      <c r="S26" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>14</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2975</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>213</v>
-      </c>
       <c r="AA26" t="n">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-10-25</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33025</v>
+        <v>1470</v>
       </c>
       <c r="E27" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>12124</v>
+        <v>245</v>
       </c>
       <c r="G27" t="n">
-        <v>36.7</v>
+        <v>16.7</v>
       </c>
       <c r="H27" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" t="n">
-        <v>8306</v>
+        <v>1215</v>
       </c>
       <c r="J27" t="n">
-        <v>25.2</v>
+        <v>82.7</v>
       </c>
       <c r="K27" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>4535</v>
+        <v>10</v>
       </c>
       <c r="M27" t="n">
-        <v>13.7</v>
+        <v>0.7</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4810</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,146 +2716,146 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>138</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21500</v>
+        <v>713</v>
       </c>
       <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>173</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>470</v>
+      </c>
+      <c r="J28" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>70</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA28" t="n">
         <v>40</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5690</v>
-      </c>
-      <c r="G28" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>89</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7480</v>
-      </c>
-      <c r="J28" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>26</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2960</v>
-      </c>
-      <c r="M28" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>19</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3285</v>
-      </c>
-      <c r="S28" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="T28" t="n">
-        <v>13</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2085</v>
-      </c>
-      <c r="V28" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>187</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19690</v>
+        <v>1220</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>6570</v>
+        <v>615</v>
       </c>
       <c r="G29" t="n">
-        <v>33.4</v>
+        <v>50.4</v>
       </c>
       <c r="H29" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5735</v>
+        <v>215</v>
       </c>
       <c r="J29" t="n">
-        <v>29.1</v>
+        <v>17.6</v>
       </c>
       <c r="K29" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3590</v>
+        <v>390</v>
       </c>
       <c r="M29" t="n">
-        <v>18.2</v>
+        <v>32</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1185</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,57 +2894,57 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17333</v>
+        <v>2590</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>4784</v>
+        <v>2265</v>
       </c>
       <c r="G30" t="n">
-        <v>27.6</v>
+        <v>87.5</v>
       </c>
       <c r="H30" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>6634</v>
+        <v>260</v>
       </c>
       <c r="J30" t="n">
-        <v>38.3</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>2835</v>
+        <v>65</v>
       </c>
       <c r="M30" t="n">
-        <v>16.4</v>
+        <v>2.5</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,84 +2983,84 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-10-31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>拉亞中北</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15080</v>
+        <v>1034</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>3112</v>
+        <v>885</v>
       </c>
       <c r="G31" t="n">
-        <v>20.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5938</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>3000</v>
+        <v>149</v>
       </c>
       <c r="M31" t="n">
-        <v>19.9</v>
+        <v>14.4</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,57 +3072,49 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="AA31" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2020-10-30</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>五</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞逢甲</t>
+          <t>小計</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17215</v>
+        <v>35799</v>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="F32" t="n">
-        <v>4371</v>
+        <v>19433</v>
       </c>
       <c r="G32" t="n">
-        <v>25.4</v>
+        <v>54.3</v>
       </c>
       <c r="H32" t="n">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="I32" t="n">
-        <v>6974</v>
+        <v>13857</v>
       </c>
       <c r="J32" t="n">
-        <v>40.5</v>
+        <v>38.7</v>
       </c>
       <c r="K32" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L32" t="n">
-        <v>3870</v>
+        <v>2094</v>
       </c>
       <c r="M32" t="n">
-        <v>22.5</v>
+        <v>5.8</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3134,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1040</v>
+        <v>210</v>
       </c>
       <c r="S32" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>960</v>
+        <v>205</v>
       </c>
       <c r="V32" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3161,180 +3153,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>167</v>
+        <v>524</v>
       </c>
       <c r="AA32" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2020-10-31</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>六</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>拉亞逢甲</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>26395</v>
-      </c>
-      <c r="E33" t="n">
-        <v>61</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8990</v>
-      </c>
-      <c r="G33" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>93</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8862</v>
-      </c>
-      <c r="J33" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>30</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3468</v>
-      </c>
-      <c r="M33" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>12</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2730</v>
-      </c>
-      <c r="S33" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>15</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2345</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>211</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>701043</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1554</v>
-      </c>
-      <c r="F34" t="n">
-        <v>226499</v>
-      </c>
-      <c r="G34" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2507</v>
-      </c>
-      <c r="I34" t="n">
-        <v>221936</v>
-      </c>
-      <c r="J34" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>910</v>
-      </c>
-      <c r="L34" t="n">
-        <v>102018</v>
-      </c>
-      <c r="M34" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9</v>
-      </c>
-      <c r="O34" t="n">
-        <v>16010</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>360</v>
-      </c>
-      <c r="R34" t="n">
-        <v>71195</v>
-      </c>
-      <c r="S34" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>396</v>
-      </c>
-      <c r="U34" t="n">
-        <v>63385</v>
-      </c>
-      <c r="V34" t="n">
-        <v>9</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>5736</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/MEDIA/0012_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/0012_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,61 +514,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>630</v>
+        <v>25809</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F3" t="n">
-        <v>110</v>
+        <v>10589</v>
       </c>
       <c r="G3" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7415</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2270</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>520</v>
-      </c>
-      <c r="J3" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3155</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -603,61 +603,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1080</v>
+        <v>20779</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F4" t="n">
-        <v>545</v>
+        <v>8109</v>
       </c>
       <c r="G4" t="n">
-        <v>50.5</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
+        <v>47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5050</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4260</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>535</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="n">
-        <v>83</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1280</v>
+        <v>24417</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>10519</v>
       </c>
       <c r="G5" t="n">
-        <v>35.2</v>
+        <v>43.1</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I5" t="n">
-        <v>510</v>
+        <v>4633</v>
       </c>
       <c r="J5" t="n">
-        <v>39.8</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>320</v>
+        <v>3905</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3205</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="AA5" t="n">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -781,61 +781,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1070</v>
+        <v>24706</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>525</v>
+        <v>11445</v>
       </c>
       <c r="G6" t="n">
-        <v>49.1</v>
+        <v>46.3</v>
       </c>
       <c r="H6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6421</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3370</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1670</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
-        <v>545</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="AA6" t="n">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1109</v>
+        <v>17236</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
-        <v>524</v>
+        <v>6441</v>
       </c>
       <c r="G7" t="n">
-        <v>47.2</v>
+        <v>37.4</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
-        <v>585</v>
+        <v>3940</v>
       </c>
       <c r="J7" t="n">
-        <v>52.8</v>
+        <v>22.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="AA7" t="n">
-        <v>69</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -959,61 +959,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1344</v>
+        <v>12431</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>4191</v>
       </c>
       <c r="G8" t="n">
-        <v>9.6</v>
+        <v>33.7</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I8" t="n">
-        <v>665</v>
+        <v>4395</v>
       </c>
       <c r="J8" t="n">
-        <v>49.5</v>
+        <v>35.4</v>
       </c>
       <c r="K8" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2135</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="T8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>550</v>
-      </c>
-      <c r="M8" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="AA8" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1048,61 +1048,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1100</v>
+        <v>12048</v>
       </c>
       <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4107</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3216</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2445</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1625</v>
+      </c>
+      <c r="S9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
-        <v>285</v>
-      </c>
-      <c r="G9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" t="n">
-        <v>605</v>
-      </c>
-      <c r="J9" t="n">
-        <v>55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>210</v>
-      </c>
-      <c r="S9" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>820</v>
+        <v>14037</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F10" t="n">
-        <v>725</v>
+        <v>5117</v>
       </c>
       <c r="G10" t="n">
-        <v>88.40000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I10" t="n">
-        <v>95</v>
+        <v>3055</v>
       </c>
       <c r="J10" t="n">
-        <v>11.6</v>
+        <v>21.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2765</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1226,34 +1226,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>905</v>
+        <v>21160</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>560</v>
+        <v>9838</v>
       </c>
       <c r="G11" t="n">
-        <v>61.9</v>
+        <v>46.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I11" t="n">
-        <v>260</v>
+        <v>5447</v>
       </c>
       <c r="J11" t="n">
-        <v>28.7</v>
+        <v>25.7</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L11" t="n">
-        <v>85</v>
+        <v>3050</v>
       </c>
       <c r="M11" t="n">
-        <v>9.4</v>
+        <v>14.4</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
@@ -1315,34 +1315,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>615</v>
+        <v>23186</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>85</v>
+        <v>7271</v>
       </c>
       <c r="G12" t="n">
-        <v>13.8</v>
+        <v>31.4</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I12" t="n">
-        <v>325</v>
+        <v>5125</v>
       </c>
       <c r="J12" t="n">
-        <v>52.8</v>
+        <v>22.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="U12" t="n">
-        <v>205</v>
+        <v>3510</v>
       </c>
       <c r="V12" t="n">
-        <v>33.3</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
@@ -1404,34 +1404,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1530</v>
+        <v>26556</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>695</v>
+        <v>11074</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4</v>
+        <v>41.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I13" t="n">
-        <v>835</v>
+        <v>6987</v>
       </c>
       <c r="J13" t="n">
-        <v>54.6</v>
+        <v>26.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4835</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -1493,34 +1493,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1041</v>
+        <v>16028</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>496</v>
+        <v>4928</v>
       </c>
       <c r="G14" t="n">
-        <v>47.6</v>
+        <v>30.7</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I14" t="n">
-        <v>545</v>
+        <v>4360</v>
       </c>
       <c r="J14" t="n">
-        <v>52.4</v>
+        <v>27.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3485</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1718</v>
+        <v>15352</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>1178</v>
+        <v>4887</v>
       </c>
       <c r="G15" t="n">
-        <v>68.59999999999999</v>
+        <v>31.8</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I15" t="n">
-        <v>530</v>
+        <v>4935</v>
       </c>
       <c r="J15" t="n">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>1925</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6</v>
+        <v>12.5</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -1671,61 +1671,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>605</v>
+        <v>13731</v>
       </c>
       <c r="E16" t="n">
+        <v>54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5124</v>
+      </c>
+      <c r="G16" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3472</v>
+      </c>
+      <c r="J16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2490</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
-        <v>355</v>
-      </c>
-      <c r="G16" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-      <c r="I16" t="n">
-        <v>240</v>
-      </c>
-      <c r="J16" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1760,61 +1760,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3306</v>
+        <v>13554</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F17" t="n">
-        <v>3251</v>
+        <v>8384</v>
       </c>
       <c r="G17" t="n">
-        <v>98.3</v>
+        <v>61.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>55</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="AA17" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
@@ -1849,34 +1849,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1025</v>
+        <v>14022</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F18" t="n">
-        <v>225</v>
+        <v>5327</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H18" t="n">
+        <v>55</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3730</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K18" t="n">
         <v>16</v>
       </c>
-      <c r="I18" t="n">
-        <v>800</v>
-      </c>
-      <c r="J18" t="n">
-        <v>78</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AA18" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -1938,34 +1938,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1675</v>
+        <v>23357</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F19" t="n">
-        <v>575</v>
+        <v>9832</v>
       </c>
       <c r="G19" t="n">
-        <v>34.3</v>
+        <v>42.1</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I19" t="n">
-        <v>890</v>
+        <v>4955</v>
       </c>
       <c r="J19" t="n">
-        <v>53.1</v>
+        <v>21.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="L19" t="n">
-        <v>210</v>
+        <v>4160</v>
       </c>
       <c r="M19" t="n">
-        <v>12.5</v>
+        <v>17.8</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="AA19" t="n">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
@@ -2027,34 +2027,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1435</v>
+        <v>27693</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F20" t="n">
-        <v>645</v>
+        <v>10258</v>
       </c>
       <c r="G20" t="n">
-        <v>44.9</v>
+        <v>37</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I20" t="n">
-        <v>790</v>
+        <v>8225</v>
       </c>
       <c r="J20" t="n">
-        <v>55.1</v>
+        <v>29.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2570</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3810</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="AA20" t="n">
-        <v>102</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
@@ -2116,34 +2116,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>965</v>
+        <v>18005</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F21" t="n">
-        <v>525</v>
+        <v>6025</v>
       </c>
       <c r="G21" t="n">
-        <v>54.4</v>
+        <v>33.5</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I21" t="n">
-        <v>440</v>
+        <v>4505</v>
       </c>
       <c r="J21" t="n">
-        <v>45.6</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2205,61 +2205,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1265</v>
+        <v>14596</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>615</v>
+        <v>5411</v>
       </c>
       <c r="G22" t="n">
-        <v>48.6</v>
+        <v>37.1</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>610</v>
+        <v>4970</v>
       </c>
       <c r="J22" t="n">
-        <v>48.2</v>
+        <v>34.1</v>
       </c>
       <c r="K22" t="n">
+        <v>23</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2485</v>
+      </c>
+      <c r="M22" t="n">
+        <v>17</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="L22" t="n">
-        <v>40</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="AA22" t="n">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1225</v>
+        <v>14015</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
-        <v>1030</v>
+        <v>4060</v>
       </c>
       <c r="G23" t="n">
-        <v>84.09999999999999</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="I23" t="n">
-        <v>185</v>
+        <v>4355</v>
       </c>
       <c r="J23" t="n">
-        <v>15.1</v>
+        <v>31.1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>2380</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8</v>
+        <v>17</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2395</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="AA23" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2383,34 +2383,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1200</v>
+        <v>8843</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>1095</v>
+        <v>2046</v>
       </c>
       <c r="G24" t="n">
-        <v>91.2</v>
+        <v>23.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I24" t="n">
-        <v>105</v>
+        <v>3122</v>
       </c>
       <c r="J24" t="n">
-        <v>8.800000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="AA24" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-10-25</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>624</v>
+        <v>14081</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F25" t="n">
-        <v>52</v>
+        <v>6597</v>
       </c>
       <c r="G25" t="n">
-        <v>8.300000000000001</v>
+        <v>46.9</v>
       </c>
       <c r="H25" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I25" t="n">
-        <v>572</v>
+        <v>3004</v>
       </c>
       <c r="J25" t="n">
-        <v>91.7</v>
+        <v>21.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="AA25" t="n">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2561,34 +2561,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1205</v>
+        <v>23013</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="F26" t="n">
-        <v>575</v>
+        <v>11576</v>
       </c>
       <c r="G26" t="n">
-        <v>47.7</v>
+        <v>50.3</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I26" t="n">
-        <v>510</v>
+        <v>5237</v>
       </c>
       <c r="J26" t="n">
-        <v>42.3</v>
+        <v>22.8</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>120</v>
+        <v>3465</v>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>15.1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="AA26" t="n">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-10-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2650,34 +2650,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1470</v>
+        <v>25200</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F27" t="n">
-        <v>245</v>
+        <v>9247</v>
       </c>
       <c r="G27" t="n">
-        <v>16.7</v>
+        <v>36.7</v>
       </c>
       <c r="H27" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I27" t="n">
-        <v>1215</v>
+        <v>7533</v>
       </c>
       <c r="J27" t="n">
-        <v>82.7</v>
+        <v>29.9</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>2115</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="n">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2739,34 +2739,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>713</v>
+        <v>14000</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
-        <v>173</v>
+        <v>6600</v>
       </c>
       <c r="G28" t="n">
-        <v>24.3</v>
+        <v>47.1</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I28" t="n">
-        <v>470</v>
+        <v>3255</v>
       </c>
       <c r="J28" t="n">
-        <v>65.90000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L28" t="n">
-        <v>70</v>
+        <v>2180</v>
       </c>
       <c r="M28" t="n">
-        <v>9.800000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2828,34 +2828,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1220</v>
+        <v>14026</v>
       </c>
       <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>64</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4911</v>
+      </c>
+      <c r="J29" t="n">
+        <v>35</v>
+      </c>
+      <c r="K29" t="n">
         <v>13</v>
       </c>
-      <c r="F29" t="n">
-        <v>615</v>
-      </c>
-      <c r="G29" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>215</v>
-      </c>
-      <c r="J29" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
       <c r="L29" t="n">
-        <v>390</v>
+        <v>1250</v>
       </c>
       <c r="M29" t="n">
-        <v>32</v>
+        <v>8.9</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="AA29" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2917,61 +2917,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2590</v>
+        <v>14715</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
-        <v>2265</v>
+        <v>4652</v>
       </c>
       <c r="G30" t="n">
-        <v>87.5</v>
+        <v>31.6</v>
       </c>
       <c r="H30" t="n">
+        <v>58</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4023</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>21</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3295</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>7</v>
       </c>
-      <c r="I30" t="n">
-        <v>260</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>65</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3006,34 +3006,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1034</v>
+        <v>12206</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F31" t="n">
-        <v>885</v>
+        <v>5944</v>
       </c>
       <c r="G31" t="n">
-        <v>85.59999999999999</v>
+        <v>48.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3292</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
-        <v>149</v>
+        <v>1980</v>
       </c>
       <c r="M31" t="n">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,91 +3072,269 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="AA31" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>拉亞中北</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>12003</v>
+      </c>
+      <c r="E32" t="n">
+        <v>65</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6869</v>
+      </c>
+      <c r="G32" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2034</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1540</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>655</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>905</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>拉亞中北</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>23350</v>
+      </c>
+      <c r="E33" t="n">
+        <v>72</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9169</v>
+      </c>
+      <c r="G33" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>37</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4732</v>
+      </c>
+      <c r="J33" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3524</v>
+      </c>
+      <c r="M33" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1990</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>20</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3935</v>
+      </c>
+      <c r="V33" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>35799</v>
-      </c>
-      <c r="E32" t="n">
-        <v>226</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19433</v>
-      </c>
-      <c r="G32" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>267</v>
-      </c>
-      <c r="I32" t="n">
-        <v>13857</v>
-      </c>
-      <c r="J32" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>29</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2094</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>210</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>205</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>524</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>68</v>
+      <c r="D34" t="n">
+        <v>554155</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F34" t="n">
+        <v>221012</v>
+      </c>
+      <c r="G34" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1561</v>
+      </c>
+      <c r="I34" t="n">
+        <v>142199</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>529</v>
+      </c>
+      <c r="L34" t="n">
+        <v>79109</v>
+      </c>
+      <c r="M34" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>206</v>
+      </c>
+      <c r="R34" t="n">
+        <v>41660</v>
+      </c>
+      <c r="S34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>408</v>
+      </c>
+      <c r="U34" t="n">
+        <v>70175</v>
+      </c>
+      <c r="V34" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4455</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
